--- a/ozone/multistate/ANO-RCC-VTZP/ozone_114.00/ozone_114.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_114.00/ozone_114.00_energies.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7998861514</v>
+        <v>-0.5604861728</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.50870378</v>
+        <v>-224.73737164</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.30858993</v>
+        <v>-225.29785782</v>
       </c>
       <c r="E2" t="n">
-        <v>-224.5127374804</v>
+        <v>-224.5127374802</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7128474443</v>
+        <v>-0.5691529588000001</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49953809</v>
+        <v>-224.66159912</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.21238554</v>
+        <v>-225.23075208</v>
       </c>
       <c r="E3" t="n">
-        <v>-224.5127374804</v>
+        <v>-224.5127374802</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8401183464</v>
+        <v>-0.5726482441</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.42701804</v>
+        <v>-224.64660074</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.26713639</v>
+        <v>-225.21924899</v>
       </c>
       <c r="E4" t="n">
-        <v>-224.5127374804</v>
+        <v>-224.5127374802</v>
       </c>
     </row>
   </sheetData>
